--- a/public/moban/物流部物料到货预测表.xlsx
+++ b/public/moban/物流部物料到货预测表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\30.公司共享信息 Company Shared Information  (CSI)\03.管理中心 Management Center (MC)\毕海娟\2021年所有工作资料\日常工作\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -877,26 +877,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>20CFL11070100005</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20CFL11070100006</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20CFL11070100033</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20CFL11070100034</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20CFL11070100004</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>20CFL13040100001</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1037,6 +1017,21 @@
     <t>纸箱
 paper skin</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20CFL11070100004</t>
+  </si>
+  <si>
+    <t>20CFL11070100005</t>
+  </si>
+  <si>
+    <t>20CFL11070100006</t>
+  </si>
+  <si>
+    <t>20CFL11070100033</t>
+  </si>
+  <si>
+    <t>20CFL11070100034</t>
   </si>
 </sst>
 </file>
@@ -1215,24 +1210,9 @@
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1240,17 +1220,11 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1264,29 +1238,50 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1578,918 +1573,919 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="21.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.375" style="25" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="25" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="16193" width="9" style="3"/>
+    <col min="1" max="1" width="13.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="14" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.625" style="1" customWidth="1"/>
+    <col min="11" max="16193" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="20">
         <v>44317</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" s="12" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" spans="1:9" s="6" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16">
-        <f t="shared" ref="I4:I45" si="0">F4+H4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="26" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9">
+        <f t="shared" ref="I4:I44" si="0">F4+H4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25"/>
+      <c r="B5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="26" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="25"/>
+      <c r="B6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="26" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="25"/>
+      <c r="B7" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="25"/>
+      <c r="B8" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25"/>
+      <c r="B9" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="25"/>
+      <c r="B10" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="26"/>
+      <c r="B11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="22"/>
+      <c r="B13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="22"/>
+      <c r="B14" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="22"/>
+      <c r="B15" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="22"/>
+      <c r="B16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="22"/>
+      <c r="B17" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="22"/>
+      <c r="B18" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="22"/>
+      <c r="B19" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="22"/>
+      <c r="B20" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="22"/>
+      <c r="B21" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="14" t="s">
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="22"/>
+      <c r="B22" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="22"/>
+      <c r="B23" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="22"/>
+      <c r="B24" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="22"/>
+      <c r="B25" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="22"/>
+      <c r="B26" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D26" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="14" t="s">
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="25"/>
+      <c r="B28" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="14" t="s">
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="25"/>
+      <c r="B29" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
-      <c r="B11" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="14" t="s">
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="25"/>
+      <c r="B30" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="14" t="s">
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="25"/>
+      <c r="B31" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="25"/>
+      <c r="B32" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="25"/>
+      <c r="B33" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="25"/>
+      <c r="B34" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="25"/>
+      <c r="B35" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="25"/>
+      <c r="B36" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="25"/>
+      <c r="B37" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="25"/>
+      <c r="B38" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="25"/>
+      <c r="B39" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="25"/>
+      <c r="B40" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="25"/>
+      <c r="B41" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
-      <c r="B13" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="22" t="s">
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="25"/>
+      <c r="B42" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="22" t="s">
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="25"/>
+      <c r="B43" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
-      <c r="B18" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
-      <c r="B20" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="14" t="s">
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="26"/>
+      <c r="B44" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
-      <c r="B22" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
-      <c r="B25" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
-      <c r="B30" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
-      <c r="B32" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
-      <c r="B33" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
-      <c r="B34" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
-      <c r="B35" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
-      <c r="B36" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
-      <c r="B37" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
-      <c r="B38" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
-      <c r="B39" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="18"/>
-      <c r="B40" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
-      <c r="B41" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
-      <c r="B42" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
-      <c r="B43" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="17" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="20"/>
-      <c r="B44" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="24" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="21" t="s">
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="21"/>
+      <c r="B45" s="22"/>
       <c r="C45" s="23"/>
       <c r="D45" s="23"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="16">
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="9">
         <f>SUM(I4:I44)</f>
         <v>0</v>
       </c>
@@ -2497,15 +2493,15 @@
   </sheetData>
   <autoFilter ref="A3:J45"/>
   <mergeCells count="9">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:I2"/>
     <mergeCell ref="A45:D45"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A27:A44"/>
     <mergeCell ref="A4:A11"/>
     <mergeCell ref="A12:A26"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:I2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094499" right="0.23622047244094499" top="0.39" bottom="0.4" header="0.31496062992126" footer="0.31496062992126"/>
